--- a/80 zadan/w80zae/w80zae/zadania/34/zadanie_34.xlsx
+++ b/80 zadan/w80zae/w80zae/zadania/34/zadanie_34.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Matura\80 zadan\w80zae\w80zae\zadania\34\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="dane" sheetId="2" r:id="rId1"/>
     <sheet name="rozwiazanie" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,12 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -96,6 +103,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -144,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,7 +189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,10 +398,5073 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:E17"/>
+  <dimension ref="A1:U365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B1">
+        <f>WEEKDAY(A1,2)</f>
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <f>MONTH(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>4</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>6</v>
+      </c>
+      <c r="P1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="R1">
+        <v>9</v>
+      </c>
+      <c r="S1">
+        <v>10</v>
+      </c>
+      <c r="T1">
+        <v>11</v>
+      </c>
+      <c r="U1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>40910</v>
+      </c>
+      <c r="B2">
+        <f>WEEKDAY(A2,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">MONTH(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>40909</v>
+      </c>
+      <c r="F2">
+        <f>MONTH(E2)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIFS($B:$B,"&lt;&gt;1",$C:$C,J1)</f>
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:U2" si="1">COUNTIFS($B:$B,"&lt;&gt;1",$C:$C,K1)</f>
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>40911</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B65" si="2">WEEKDAY(A3,2)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40914</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="3">MONTH(E3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF($F2:$F17,J1)</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:T3" si="4">COUNTIF($F2:$F17,K1)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <f>COUNTIF($F2:$F17,U1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>40912</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>41007</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f>J2-J3</f>
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:T4" si="5">K2-K3</f>
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="U4">
+        <f>U2-U3</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>40913</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>41008</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>40914</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41030</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>40915</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>41031</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>40916</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41032</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>40917</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>41056</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>40918</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>41067</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>40919</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>41068</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>40920</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>41136</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>40921</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>41214</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>40922</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>41215</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>40923</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>41224</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>40924</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>41268</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>40925</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>41269</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>40926</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>40927</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>40928</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>40929</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>40930</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>40931</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>40932</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>40933</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>40934</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>40935</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>40936</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>40937</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>40938</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>40939</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>40941</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>40942</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>40943</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>40944</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>40945</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>40946</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>40947</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40948</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40949</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>40950</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>40951</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>40952</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>40953</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>40954</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40955</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>40956</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>40957</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>40958</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>40959</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>40960</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>40961</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>40962</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>40963</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40964</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40965</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40966</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40967</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40968</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40970</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40971</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>40972</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40973</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>40974</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B129" si="6">WEEKDAY(A66,2)</f>
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C129" si="7">MONTH(A66)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>40975</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>40976</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>40977</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>40978</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>40979</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>40980</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>40981</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>40982</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>40983</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>40984</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>40985</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>40986</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>40987</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>40988</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>40989</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>40990</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>40991</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>40992</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>40993</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>40994</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>40995</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>40996</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>40997</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>40998</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>40999</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>41001</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>41002</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>41003</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41004</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>41005</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>41006</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>41007</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>41008</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>41009</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>41010</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>41011</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>41012</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>41013</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>41014</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>41015</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>41016</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>41017</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>41018</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>41019</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>41020</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>41021</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>41022</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>41023</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>41024</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>41025</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>41026</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>41027</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>41028</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>41029</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>41031</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>41032</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>41033</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>41034</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>41035</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>41036</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>41037</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>41038</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130:B193" si="8">WEEKDAY(A130,2)</f>
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C193" si="9">MONTH(A130)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>41039</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>41040</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>41041</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>41042</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>41043</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>41044</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>41045</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>41046</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>41047</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>41048</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>41049</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>41050</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>41051</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>41052</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>41053</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>41054</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>41055</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>41056</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>41057</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>41058</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>41059</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>41060</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>41062</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>41063</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>41064</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>41065</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>41066</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>41067</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>41068</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>41069</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>41070</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>41071</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>41072</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>41073</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>41074</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>41075</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>41076</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>41077</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>41078</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>41079</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>41080</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>41081</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>41082</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>41083</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>41084</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>41085</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>41086</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>41087</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>41088</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>41089</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>41090</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>41092</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>41093</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>41094</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>41095</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>41096</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>41097</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>41098</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>41099</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>41100</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>41101</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>41102</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ref="B194:B257" si="10">WEEKDAY(A194,2)</f>
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ref="C194:C257" si="11">MONTH(A194)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>41103</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>41104</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>41105</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>41106</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>41107</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>41108</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>41109</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>41110</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>41111</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>41112</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>41113</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>41114</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>41115</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>41116</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>41117</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>41118</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>41119</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>41120</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>41121</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>41123</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>41124</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>41125</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>41126</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>41127</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>41128</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>41129</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>41130</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>41131</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>41132</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>41133</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>41134</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>41135</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>41136</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>41137</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>41138</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>41139</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>41140</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>41141</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>41142</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>41143</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>41144</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>41145</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>41146</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>41147</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>41148</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>41149</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>41150</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>41151</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>41152</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>41154</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>41155</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>41156</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>41157</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>41158</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>41159</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>41160</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>41161</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>41162</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>41163</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>41164</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>41165</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>41166</v>
+      </c>
+      <c r="B258">
+        <f t="shared" ref="B258:B321" si="12">WEEKDAY(A258,2)</f>
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <f t="shared" ref="C258:C321" si="13">MONTH(A258)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>41167</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>41168</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>41169</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>41170</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>41171</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>41172</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>41173</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>41174</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>41175</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>41176</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>41177</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>41178</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>41179</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>41180</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>41181</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>41182</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>41184</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>41185</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>41186</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>41187</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>41188</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>41189</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>41190</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>41191</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>41192</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>41193</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>41194</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>41195</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>41196</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>41197</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>41198</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>41199</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>41200</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>41201</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>41202</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>41203</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>41204</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>41205</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>41206</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>41207</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>41208</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>41209</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>41210</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>41211</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>41212</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>41213</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>41215</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>41216</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>41217</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>41218</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>41219</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>41220</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>41221</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>41222</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>41223</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>41224</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>41225</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>41226</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>41227</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>41228</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>41229</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>41230</v>
+      </c>
+      <c r="B322">
+        <f t="shared" ref="B322:B365" si="14">WEEKDAY(A322,2)</f>
+        <v>6</v>
+      </c>
+      <c r="C322">
+        <f t="shared" ref="C322:C365" si="15">MONTH(A322)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>41231</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C323">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>41232</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>41233</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>41234</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>41235</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>41236</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>41237</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>41238</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>41239</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>41240</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>41241</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>41242</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C334">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>41243</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C335">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C336">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>41245</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C337">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>41246</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>41247</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>41248</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>41249</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C341">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>41250</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C342">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>41251</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C343">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>41252</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C344">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>41253</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>41254</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>41255</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C347">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>41256</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C348">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>41257</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C349">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>41258</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C350">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>41259</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C351">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>41260</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>41261</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C353">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>41262</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>41263</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C355">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>41264</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C356">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>41265</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C357">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>41266</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C358">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>41267</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>41268</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>41269</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>41270</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>41271</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C363">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>41272</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C364">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>41273</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C365">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,127 +5474,21 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="2">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="2">
-        <v>40914</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="2">
-        <v>41007</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="2">
-        <v>41008</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="2">
-        <v>41030</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="2">
-        <v>41031</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="2">
-        <v>41032</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="2">
-        <v>41056</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="2">
-        <v>41067</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="2">
-        <v>41068</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="2">
-        <v>41136</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="2">
-        <v>41214</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2">
-        <v>41215</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="2">
-        <v>41224</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="2">
-        <v>41268</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="2">
-        <v>41269</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>DATE(2012,ROW()-1,1)</f>
         <v>40909</v>
@@ -537,8 +5504,12 @@
       <c r="E2" s="2">
         <v>40909</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>WEEKDAY(A2,2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A13" si="0">DATE(2012,ROW()-1,1)</f>
         <v>40940</v>
@@ -555,7 +5526,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>40969</v>
@@ -572,7 +5543,7 @@
         <v>41007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>41000</v>
@@ -589,7 +5560,7 @@
         <v>41008</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>41030</v>
@@ -606,7 +5577,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>41061</v>
@@ -623,7 +5594,7 @@
         <v>41031</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>41091</v>
@@ -640,7 +5611,7 @@
         <v>41032</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>41122</v>
@@ -657,7 +5628,7 @@
         <v>41056</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>41153</v>
@@ -674,7 +5645,7 @@
         <v>41067</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>41183</v>
@@ -691,7 +5662,7 @@
         <v>41068</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>41214</v>
@@ -708,7 +5679,7 @@
         <v>41136</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>41244</v>
@@ -725,17 +5696,17 @@
         <v>41214</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <v>41215</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <v>41224</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <v>41268</v>
       </c>
